--- a/Badanie_configconst.xlsx
+++ b/Badanie_configconst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\studia\SEM 4\Struktury danych\Projekt1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A3DE4F-DB43-48FA-AA15-6746A8EF051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BFD0AA-F51E-4A59-BDEA-A92C1D0593CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DCB5EE86-F212-4520-996A-EDF45409FDE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{DCB5EE86-F212-4520-996A-EDF45409FDE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablica dynamiczna" sheetId="9" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
   <si>
     <t>DodajPoczatek</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>metoda/rozmiar</t>
-  </si>
-  <si>
-    <t>Eksperyment masowy – analiza kosztu średniego dużych bloków operacj</t>
   </si>
   <si>
     <t>Tablica dynamiczna</t>
@@ -165,16 +162,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -273,7 +270,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -371,7 +368,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-23FD-4837-BD8C-08F728604710}"/>
@@ -474,7 +471,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-23FD-4837-BD8C-08F728604710}"/>
@@ -577,7 +574,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-23FD-4837-BD8C-08F728604710}"/>
@@ -680,7 +677,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-23FD-4837-BD8C-08F728604710}"/>
@@ -783,7 +780,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-23FD-4837-BD8C-08F728604710}"/>
@@ -886,7 +883,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-23FD-4837-BD8C-08F728604710}"/>
@@ -995,7 +992,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-23FD-4837-BD8C-08F728604710}"/>
@@ -1408,7 +1405,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1506,7 +1503,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0DF4-4F64-AEE2-F5A62D7C7595}"/>
@@ -1609,7 +1606,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0DF4-4F64-AEE2-F5A62D7C7595}"/>
@@ -1712,7 +1709,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0DF4-4F64-AEE2-F5A62D7C7595}"/>
@@ -1850,6 +1847,7 @@
       <c:valAx>
         <c:axId val="731651456"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2120,7 +2118,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2218,7 +2216,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-663B-4279-B9EE-2FF9F104692A}"/>
@@ -2321,7 +2319,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-663B-4279-B9EE-2FF9F104692A}"/>
@@ -2424,7 +2422,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-663B-4279-B9EE-2FF9F104692A}"/>
@@ -2832,7 +2830,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2930,7 +2928,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3369-4528-881B-3CF6EF655C30}"/>
@@ -3033,7 +3031,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3369-4528-881B-3CF6EF655C30}"/>
@@ -3136,7 +3134,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3369-4528-881B-3CF6EF655C30}"/>
@@ -3544,7 +3542,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3642,7 +3640,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B896-4F8A-A62D-B32BE35D92F1}"/>
@@ -3745,7 +3743,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B896-4F8A-A62D-B32BE35D92F1}"/>
@@ -3848,7 +3846,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B896-4F8A-A62D-B32BE35D92F1}"/>
@@ -3986,6 +3984,7 @@
       <c:valAx>
         <c:axId val="731651456"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4256,7 +4255,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4354,7 +4353,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6BBB-4979-93D6-71850B28B60A}"/>
@@ -4457,7 +4456,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6BBB-4979-93D6-71850B28B60A}"/>
@@ -4560,7 +4559,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6BBB-4979-93D6-71850B28B60A}"/>
@@ -4698,6 +4697,7 @@
       <c:valAx>
         <c:axId val="731651456"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4968,7 +4968,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5066,7 +5066,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CF24-4868-9A90-72F03A130A56}"/>
@@ -5169,7 +5169,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CF24-4868-9A90-72F03A130A56}"/>
@@ -5272,7 +5272,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CF24-4868-9A90-72F03A130A56}"/>
@@ -5680,7 +5680,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5778,7 +5778,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4DBA-4C02-8F1A-74593F0B354E}"/>
@@ -5881,7 +5881,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4DBA-4C02-8F1A-74593F0B354E}"/>
@@ -5984,7 +5984,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4DBA-4C02-8F1A-74593F0B354E}"/>
@@ -11426,8 +11426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C18E5F-EB2C-47F5-8456-A8A5954F120B}">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11438,17 +11438,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -11708,255 +11708,253 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="5">
         <v>5000</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="5">
         <v>8000</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="5">
         <v>10000</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="5">
         <v>16000</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="5">
         <v>20000</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="5">
         <v>40000</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="5">
         <v>60000</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="5">
         <v>100000</v>
       </c>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>6554</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>10357</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <v>12883</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>20577</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="6">
         <v>25710</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <v>50957</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="6">
         <v>76333</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="6">
         <v>151480</v>
       </c>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>28</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>28</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>27</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <v>28</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="6">
         <v>27</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>27</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="6">
         <v>28</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="6">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>6759</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>10064</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="6">
         <v>11887</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="6">
         <v>15242</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="6">
         <v>18675</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="6">
         <v>38322</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="6">
         <v>68973</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="6">
         <v>127256</v>
       </c>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>7162</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>11355</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="6">
         <v>13649</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="6">
         <v>23543</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="6">
         <v>26727</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="6">
         <v>52903</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="6">
         <v>79227</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="6">
         <v>162539</v>
       </c>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>26</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <v>26</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="6">
         <v>26</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <v>26</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="6">
         <v>26</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="6">
         <v>26</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="6">
         <v>26</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="6">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <v>3723</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
         <v>9146</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="6">
         <v>7362</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="6">
         <v>12444</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="6">
         <v>14828</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="6">
         <v>38369</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="6">
         <v>64888</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="6">
         <v>120698</v>
       </c>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <v>1652</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>2385</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="6">
         <v>3166</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <v>5214</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <v>5104</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="6">
         <v>10496</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="6">
         <v>10151</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="6">
         <v>10291</v>
       </c>
     </row>
@@ -11975,8 +11973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AE1B2A-EA6B-4EE4-B171-7C52CB4D89C3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11991,7 +11989,7 @@
   <dimension ref="C2:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12000,17 +11998,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
@@ -12291,17 +12289,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
@@ -12573,7 +12571,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12588,7 +12586,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12618,7 +12616,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
